--- a/neuralito/ArfGen/docs/Entregas/Informe Final/presentacion/rendimiento clasificadores.xlsx
+++ b/neuralito/ArfGen/docs/Entregas/Informe Final/presentacion/rendimiento clasificadores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="25">
   <si>
     <t>Optimizados</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>WW3Last2Days</t>
+  </si>
+  <si>
+    <t>Ala Moana</t>
+  </si>
+  <si>
+    <t>Diamond Head</t>
   </si>
 </sst>
 </file>
@@ -351,6 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,7 +376,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,24 +1114,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69141248"/>
-        <c:axId val="69142784"/>
+        <c:axId val="73924992"/>
+        <c:axId val="73926528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69141248"/>
+        <c:axId val="73924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69142784"/>
+        <c:crossAx val="73926528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69142784"/>
+        <c:axId val="73926528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1139,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69141248"/>
+        <c:crossAx val="73924992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1146,7 +1152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1882,24 +1888,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69193728"/>
-        <c:axId val="69195264"/>
+        <c:axId val="73982336"/>
+        <c:axId val="73983872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69193728"/>
+        <c:axId val="73982336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69195264"/>
+        <c:crossAx val="73983872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69195264"/>
+        <c:axId val="73983872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1913,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69193728"/>
+        <c:crossAx val="73982336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,7 +1926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2656,24 +2662,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69745664"/>
-        <c:axId val="69751552"/>
+        <c:axId val="79524608"/>
+        <c:axId val="79526144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69745664"/>
+        <c:axId val="79524608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69751552"/>
+        <c:crossAx val="79526144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69751552"/>
+        <c:axId val="79526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2687,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69745664"/>
+        <c:crossAx val="79524608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2694,7 +2700,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3430,24 +3436,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69789952"/>
-        <c:axId val="69799936"/>
+        <c:axId val="79257600"/>
+        <c:axId val="79259136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69789952"/>
+        <c:axId val="79257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69799936"/>
+        <c:crossAx val="79259136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69799936"/>
+        <c:axId val="79259136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3461,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69789952"/>
+        <c:crossAx val="79257600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3468,7 +3474,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4204,24 +4210,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69858816"/>
-        <c:axId val="69860352"/>
+        <c:axId val="79289344"/>
+        <c:axId val="79532800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69858816"/>
+        <c:axId val="79289344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69860352"/>
+        <c:crossAx val="79532800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69860352"/>
+        <c:axId val="79532800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,7 +4235,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69858816"/>
+        <c:crossAx val="79289344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4242,10 +4248,1018 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Correlación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$112:$A$116</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$112:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$112:$A$116</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$112:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$112:$A$116</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$112:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$112:$A$116</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$112:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="38697984"/>
+        <c:axId val="38761216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38697984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38761216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38761216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38697984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Error absoluto medio [mts.]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$119:$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$119:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$119:$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$119:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$119:$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$119:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$119:$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$119:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="51703168"/>
+        <c:axId val="90264704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51703168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90264704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90264704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51703168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE (Optimo)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$136:$A$140</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$136:$B$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$136:$A$140</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$136:$C$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="79800960"/>
+        <c:axId val="80077184"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="79800960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80077184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80077184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79800960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correl. (Optimo)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$129:$A$133</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$129:$B$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correl.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$129:$A$133</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sunset</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ala Moana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diamond Head</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Makapuu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Makaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$129:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="80977280"/>
+        <c:axId val="81009664"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="80977280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81009664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81009664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80977280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4453,6 +5467,126 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="11 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="13 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="16 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8157,10 +9291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8176,14 +9310,14 @@
         <v>12</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -8526,12 +9660,12 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8541,14 +9675,14 @@
         <v>13</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="14" t="s">
@@ -8896,14 +10030,14 @@
         <v>14</v>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="14" t="s">
@@ -9251,14 +10385,14 @@
         <v>15</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="21" t="s">
@@ -9606,14 +10740,14 @@
         <v>16</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27" t="s">
+      <c r="D91" s="28"/>
+      <c r="E91" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F91" s="28"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
       <c r="A92" s="21" t="s">
@@ -9954,6 +11088,344 @@
       <c r="F108" s="2">
         <v>0.62</v>
       </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="C112" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="D112" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="E112" s="16">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="C114" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="D114" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="E114" s="16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D115" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D116" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="C119" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="D119" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="E119" s="16">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="D121" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="D122" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="D123" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B128" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="C129" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="E129" s="16"/>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="C131" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="E131" s="16"/>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="C132" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="C133" s="26">
+        <v>0.78</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B135" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="C136" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="C138" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D138" s="24"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="C139" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D139" s="24"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="C140" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="D140" s="26"/>
+      <c r="E140" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/neuralito/ArfGen/docs/Entregas/Informe Final/presentacion/rendimiento clasificadores.xlsx
+++ b/neuralito/ArfGen/docs/Entregas/Informe Final/presentacion/rendimiento clasificadores.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="28">
   <si>
     <t>Optimizados</t>
   </si>
@@ -91,6 +92,15 @@
   </si>
   <si>
     <t>Diamond Head</t>
+  </si>
+  <si>
+    <t>Optimo</t>
+  </si>
+  <si>
+    <t>No óptimo</t>
+  </si>
+  <si>
+    <t>Correlación</t>
   </si>
 </sst>
 </file>
@@ -1114,24 +1124,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73924992"/>
-        <c:axId val="73926528"/>
+        <c:axId val="71372160"/>
+        <c:axId val="71836800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73924992"/>
+        <c:axId val="71372160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73926528"/>
+        <c:crossAx val="71836800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73926528"/>
+        <c:axId val="71836800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1149,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73924992"/>
+        <c:crossAx val="71372160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,10 +1162,393 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Diamond Head - Correlación (SVM)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$145:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WW3Last3Lectures</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WW3Simple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TwoGridPoint</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WW3Last2Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$145:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No óptimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$145:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WW3Last3Lectures</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WW3Simple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TwoGridPoint</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WW3Last2Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$145:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:shape val="box"/>
+        <c:axId val="91522176"/>
+        <c:axId val="91586944"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="91522176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91586944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91586944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91522176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Diamond Head - MAE(SVM) [mts.]</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$145:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WW3Last3Lectures</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WW3Simple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TwoGridPoint</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WW3Last2Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$145:$E$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No óptimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$145:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WW3Last3Lectures</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WW3Simple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TwoGridPoint</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WW3Last2Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$145:$F$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:shape val="cylinder"/>
+        <c:axId val="91116672"/>
+        <c:axId val="91155072"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="91116672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91155072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91155072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91116672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1888,24 +2281,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73982336"/>
-        <c:axId val="73983872"/>
+        <c:axId val="75997184"/>
+        <c:axId val="89620480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73982336"/>
+        <c:axId val="75997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73983872"/>
+        <c:crossAx val="89620480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73983872"/>
+        <c:axId val="89620480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +2306,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73982336"/>
+        <c:crossAx val="75997184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1926,7 +2319,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2662,24 +3055,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79524608"/>
-        <c:axId val="79526144"/>
+        <c:axId val="89642880"/>
+        <c:axId val="57435264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79524608"/>
+        <c:axId val="89642880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79526144"/>
+        <c:crossAx val="57435264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79526144"/>
+        <c:axId val="57435264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +3080,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79524608"/>
+        <c:crossAx val="89642880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2700,7 +3093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3436,24 +3829,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79257600"/>
-        <c:axId val="79259136"/>
+        <c:axId val="70670976"/>
+        <c:axId val="70697344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79257600"/>
+        <c:axId val="70670976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79259136"/>
+        <c:crossAx val="70697344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79259136"/>
+        <c:axId val="70697344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,7 +3854,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79257600"/>
+        <c:crossAx val="70670976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3474,7 +3867,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4210,24 +4603,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79289344"/>
-        <c:axId val="79532800"/>
+        <c:axId val="71288704"/>
+        <c:axId val="71290240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79289344"/>
+        <c:axId val="71288704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79532800"/>
+        <c:crossAx val="71290240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79532800"/>
+        <c:axId val="71290240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,7 +4628,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79289344"/>
+        <c:crossAx val="71288704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,7 +4641,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4530,26 +4923,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="38697984"/>
-        <c:axId val="38761216"/>
+        <c:axId val="71382912"/>
+        <c:axId val="71384448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38697984"/>
+        <c:axId val="71382912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38761216"/>
+        <c:crossAx val="71384448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38761216"/>
+        <c:axId val="71384448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,7 +4950,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38697984"/>
+        <c:crossAx val="71382912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4571,7 +4963,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4852,26 +5244,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="51703168"/>
-        <c:axId val="90264704"/>
+        <c:axId val="71433216"/>
+        <c:axId val="71451392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51703168"/>
+        <c:axId val="71433216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90264704"/>
+        <c:crossAx val="71451392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90264704"/>
+        <c:axId val="71451392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4880,7 +5271,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51703168"/>
+        <c:crossAx val="71433216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4893,7 +5284,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5036,25 +5427,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="79800960"/>
-        <c:axId val="80077184"/>
+        <c:axId val="71468928"/>
+        <c:axId val="71470464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79800960"/>
+        <c:axId val="71468928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80077184"/>
+        <c:crossAx val="71470464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80077184"/>
+        <c:axId val="71470464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +5453,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79800960"/>
+        <c:crossAx val="71468928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5075,7 +5466,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5218,25 +5609,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="80977280"/>
-        <c:axId val="81009664"/>
+        <c:axId val="71507968"/>
+        <c:axId val="71509504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80977280"/>
+        <c:axId val="71507968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81009664"/>
+        <c:crossAx val="71509504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81009664"/>
+        <c:axId val="71509504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5635,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80977280"/>
+        <c:crossAx val="71507968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5257,7 +5648,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5582,6 +5973,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="14 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="15 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9291,10 +9742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="T147" sqref="T147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11295,7 +11746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1">
+    <row r="129" spans="1:6" ht="15.75" thickBot="1">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -11307,7 +11758,7 @@
       </c>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1">
+    <row r="130" spans="1:6" ht="15.75" thickBot="1">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -11319,7 +11770,7 @@
       </c>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+    <row r="131" spans="1:6" ht="15.75" thickBot="1">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -11331,7 +11782,7 @@
       </c>
       <c r="E131" s="16"/>
     </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+    <row r="132" spans="1:6" ht="15.75" thickBot="1">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -11343,7 +11794,7 @@
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -11355,7 +11806,7 @@
       </c>
       <c r="E133" s="2"/>
     </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1">
       <c r="B135" s="10" t="s">
         <v>11</v>
       </c>
@@ -11363,7 +11814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1">
+    <row r="136" spans="1:6" ht="15.75" thickBot="1">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -11375,7 +11826,7 @@
       </c>
       <c r="E136" s="16"/>
     </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1">
+    <row r="137" spans="1:6" ht="15.75" thickBot="1">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -11388,7 +11839,7 @@
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1">
+    <row r="138" spans="1:6" ht="15.75" thickBot="1">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -11401,7 +11852,7 @@
       <c r="D138" s="24"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1">
+    <row r="139" spans="1:6" ht="15.75" thickBot="1">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -11414,7 +11865,7 @@
       <c r="D139" s="24"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1">
+    <row r="140" spans="1:6" ht="15.75" thickBot="1">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -11427,8 +11878,125 @@
       <c r="D140" s="26"/>
       <c r="E140" s="2"/>
     </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="143" spans="1:6">
+      <c r="A143" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="33"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A144" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D145" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="E145" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="F145" s="18">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="D146" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="E146" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="F146" s="16">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="D147" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="E147" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="F147" s="16">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="D148" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="E148" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="F148" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:F143"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="C91:D91"/>

--- a/neuralito/ArfGen/docs/Entregas/Informe Final/presentacion/rendimiento clasificadores.xlsx
+++ b/neuralito/ArfGen/docs/Entregas/Informe Final/presentacion/rendimiento clasificadores.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -97,10 +96,10 @@
     <t>Optimo</t>
   </si>
   <si>
-    <t>No óptimo</t>
+    <t>Correlación</t>
   </si>
   <si>
-    <t>Correlación</t>
+    <t>Por defecto</t>
   </si>
 </sst>
 </file>
@@ -368,6 +367,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,12 +383,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1124,24 +1123,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71372160"/>
-        <c:axId val="71836800"/>
+        <c:axId val="62057472"/>
+        <c:axId val="62092032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71372160"/>
+        <c:axId val="62057472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71836800"/>
+        <c:crossAx val="62092032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71836800"/>
+        <c:axId val="62092032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,20 +1148,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71372160"/>
+        <c:crossAx val="62057472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1264,7 +1262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No óptimo</c:v>
+                  <c:v>Por defecto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1311,28 +1309,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="91522176"/>
-        <c:axId val="91586944"/>
+        <c:axId val="73677824"/>
+        <c:axId val="73691904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="91522176"/>
+        <c:axId val="73677824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91586944"/>
+        <c:crossAx val="73691904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91586944"/>
+        <c:axId val="73691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1338,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91522176"/>
+        <c:crossAx val="73677824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1456,7 +1453,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No óptimo</c:v>
+                  <c:v>Por defecto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,28 +1500,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="91116672"/>
-        <c:axId val="91155072"/>
+        <c:axId val="73730304"/>
+        <c:axId val="73740288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="91116672"/>
+        <c:axId val="73730304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91155072"/>
+        <c:crossAx val="73740288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91155072"/>
+        <c:axId val="73740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1529,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91116672"/>
+        <c:crossAx val="73730304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,7 +1542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2281,24 +2277,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75997184"/>
-        <c:axId val="89620480"/>
+        <c:axId val="62716928"/>
+        <c:axId val="62124800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75997184"/>
+        <c:axId val="62716928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89620480"/>
+        <c:crossAx val="62124800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89620480"/>
+        <c:axId val="62124800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,20 +2302,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75997184"/>
+        <c:crossAx val="62716928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3055,24 +3050,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89642880"/>
-        <c:axId val="57435264"/>
+        <c:axId val="62705024"/>
+        <c:axId val="62186624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89642880"/>
+        <c:axId val="62705024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57435264"/>
+        <c:crossAx val="62186624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57435264"/>
+        <c:axId val="62186624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,20 +3075,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89642880"/>
+        <c:crossAx val="62705024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3829,24 +3823,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70670976"/>
-        <c:axId val="70697344"/>
+        <c:axId val="64043648"/>
+        <c:axId val="63918464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70670976"/>
+        <c:axId val="64043648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70697344"/>
+        <c:crossAx val="63918464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70697344"/>
+        <c:axId val="63918464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3854,20 +3848,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70670976"/>
+        <c:crossAx val="64043648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4603,24 +4596,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71288704"/>
-        <c:axId val="71290240"/>
+        <c:axId val="73426816"/>
+        <c:axId val="73428352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71288704"/>
+        <c:axId val="73426816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71290240"/>
+        <c:crossAx val="73428352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71290240"/>
+        <c:axId val="73428352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,20 +4621,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71288704"/>
+        <c:crossAx val="73426816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4668,7 +4660,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4923,25 +4914,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71382912"/>
-        <c:axId val="71384448"/>
+        <c:axId val="73486720"/>
+        <c:axId val="73488256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71382912"/>
+        <c:axId val="73486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71384448"/>
+        <c:crossAx val="73488256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71384448"/>
+        <c:axId val="73488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,20 +4941,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71382912"/>
+        <c:crossAx val="73486720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4989,7 +4979,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5244,25 +5233,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71433216"/>
-        <c:axId val="71451392"/>
+        <c:axId val="73515008"/>
+        <c:axId val="73516544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71433216"/>
+        <c:axId val="73515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71451392"/>
+        <c:crossAx val="73516544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71451392"/>
+        <c:axId val="73516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,20 +5260,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71433216"/>
+        <c:crossAx val="73515008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5427,25 +5415,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="71468928"/>
-        <c:axId val="71470464"/>
+        <c:axId val="73620096"/>
+        <c:axId val="73625984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71468928"/>
+        <c:axId val="73620096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71470464"/>
+        <c:crossAx val="73625984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71470464"/>
+        <c:axId val="73625984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5453,7 +5441,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71468928"/>
+        <c:crossAx val="73620096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5466,7 +5454,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5609,25 +5597,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="71507968"/>
-        <c:axId val="71509504"/>
+        <c:axId val="73655040"/>
+        <c:axId val="73656576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71507968"/>
+        <c:axId val="73655040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71509504"/>
+        <c:crossAx val="73656576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71509504"/>
+        <c:axId val="73656576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5623,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71507968"/>
+        <c:crossAx val="73655040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5648,7 +5636,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9745,7 +9733,7 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="T147" sqref="T147"/>
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9761,14 +9749,14 @@
         <v>12</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -10126,14 +10114,14 @@
         <v>13</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="14" t="s">
@@ -10481,14 +10469,14 @@
         <v>14</v>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="14" t="s">
@@ -10836,14 +10824,14 @@
         <v>15</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28" t="s">
+      <c r="D70" s="30"/>
+      <c r="E70" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="29"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="21" t="s">
@@ -11191,14 +11179,14 @@
         <v>16</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28" t="s">
+      <c r="D91" s="30"/>
+      <c r="E91" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F91" s="29"/>
+      <c r="F91" s="31"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
       <c r="A92" s="21" t="s">
@@ -11884,14 +11872,14 @@
         <v>14</v>
       </c>
       <c r="B143" s="13"/>
-      <c r="C143" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32" t="s">
+      <c r="C143" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F143" s="33"/>
+      <c r="F143" s="29"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" thickBot="1">
       <c r="A144" s="14" t="s">
@@ -11904,13 +11892,13 @@
         <v>25</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" thickBot="1">
@@ -11995,18 +11983,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="E143:F143"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
